--- a/圖表練習.xlsx
+++ b/圖表練習.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\演講\22.11.23光華國中圖表教案\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D45B91-F5CB-4AA0-BC71-F7523426C79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118B2CD5-1D7C-48AC-AC32-8FB7737D2DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" activeTab="2" xr2:uid="{B653B04D-0047-46C5-8C52-372278573B4F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" xr2:uid="{B653B04D-0047-46C5-8C52-372278573B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="練習1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="練習4" sheetId="4" r:id="rId4"/>
     <sheet name="練習5" sheetId="5" r:id="rId5"/>
     <sheet name="練習6" sheetId="6" r:id="rId6"/>
+    <sheet name="最後" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>燃氣</t>
   </si>
@@ -916,6 +917,13 @@
   </si>
   <si>
     <t>人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forms.gle/vhQifgKCKEsn2UdCA</t>
+  </si>
+  <si>
+    <t>課程回饋表單</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -927,7 +935,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -962,6 +970,15 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -980,7 +997,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,8 +1005,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,11 +1035,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2" xr:uid="{BD3BD0DB-B022-470B-BAF8-4FE6C3627703}"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1239,7 +1263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69CC896-41EF-46CB-B445-981BB95A5A04}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1532,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D5F7E75-9FD6-45E3-BE1B-67F576F59829}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3824,4 +3848,33 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EC7348-D43D-4875-93C0-4000AECA145D}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{061FA276-8E70-4701-9BEF-7A4FD1B5DE33}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>